--- a/docs/achievement.xlsx
+++ b/docs/achievement.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="archievement" sheetId="1" r:id="rId4"/>
+    <sheet name="achievement" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>

--- a/docs/achievement.xlsx
+++ b/docs/achievement.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -32,9 +32,6 @@
     <t>param2</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
     <t>cond</t>
   </si>
   <si>
@@ -50,42 +47,24 @@
     <t>floor</t>
   </si>
   <si>
-    <t>フロア5に到達した</t>
-  </si>
-  <si>
     <t>先のフロアに進もう</t>
   </si>
   <si>
     <t>フロア10に到達</t>
   </si>
   <si>
-    <t>フロア10に到達した</t>
-  </si>
-  <si>
     <t>フロア15に到達</t>
   </si>
   <si>
-    <t>フロア15に到達した</t>
-  </si>
-  <si>
     <t>フロア20に到達</t>
   </si>
   <si>
-    <t>フロア20に到達した</t>
-  </si>
-  <si>
     <t>フロア25に到達</t>
   </si>
   <si>
-    <t>フロア25に到達した</t>
-  </si>
-  <si>
     <t>フロア30に到達</t>
   </si>
   <si>
-    <t>フロア30に到達した</t>
-  </si>
-  <si>
     <t>オーブを4つ集めた</t>
   </si>
   <si>
@@ -101,100 +80,70 @@
     <t>floor_all</t>
   </si>
   <si>
-    <t>全フロアを踏破した</t>
-  </si>
-  <si>
     <t>全フロアを踏破しよう</t>
   </si>
   <si>
+    <t>所持金5000G突破</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>お金をたくさん集めよう</t>
+  </si>
+  <si>
+    <t>所持金10000G突破</t>
+  </si>
+  <si>
     <t>アイテム収集率25%達成</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>アイテム収集率25%を達成した</t>
-  </si>
-  <si>
     <t>未知のアイテムを見つけよう</t>
   </si>
   <si>
     <t>アイテム収集率50%達成</t>
   </si>
   <si>
-    <t>アイテム収集率50%を達成した</t>
-  </si>
-  <si>
     <t>アイテム収集率75%達成</t>
   </si>
   <si>
-    <t>アイテム収集率75%を達成した</t>
-  </si>
-  <si>
     <t>アイテム収集率90%達成</t>
   </si>
   <si>
-    <t>アイテム収集率90%を達成した</t>
-  </si>
-  <si>
     <t>アイテム収集率100%達成</t>
   </si>
   <si>
-    <t>アイテム収集率100%を達成した</t>
-  </si>
-  <si>
     <t>ナイトメアLv1撃破</t>
   </si>
   <si>
     <t>nightmare</t>
   </si>
   <si>
-    <t>ナイトメアLv1を倒した</t>
-  </si>
-  <si>
     <t>ナイトメアを倒そう</t>
   </si>
   <si>
     <t>ナイトメアLv2撃破</t>
   </si>
   <si>
-    <t>ナイトメアLv2を倒した</t>
-  </si>
-  <si>
     <t>ナイトメアLv3撃破</t>
   </si>
   <si>
-    <t>ナイトメアLv3を倒した</t>
-  </si>
-  <si>
     <t>ナイトメアLv4撃破</t>
   </si>
   <si>
-    <t>ナイトメアLv4を倒した</t>
-  </si>
-  <si>
     <t>ナイトメアLv5撃破</t>
   </si>
   <si>
-    <t>ナイトメアLv5を倒した</t>
-  </si>
-  <si>
     <t>ナイトメアLv6撃破</t>
   </si>
   <si>
-    <t>ナイトメアLv6を倒した</t>
-  </si>
-  <si>
     <t>ナイトメアLv7撃破</t>
   </si>
   <si>
-    <t>ナイトメアLv7を倒した</t>
-  </si>
-  <si>
     <t>ナイトメアLv8撃破</t>
-  </si>
-  <si>
-    <t>ナイトメアLv8を倒した</t>
   </si>
   <si>
     <t>空腹で倒れた</t>
@@ -1572,7 +1521,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1585,8 +1534,7 @@
     <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.8438" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.8438" style="1" customWidth="1"/>
-    <col min="9" max="256" width="9" style="1" customWidth="1"/>
+    <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -1611,34 +1559,28 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>9</v>
-      </c>
       <c r="C2" t="s" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s" s="4">
         <v>8</v>
-      </c>
-      <c r="E2" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s" s="4">
-        <v>9</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -1646,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="4">
         <v>10</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>5</v>
@@ -1657,10 +1599,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1668,10 +1607,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4">
         <v>10</v>
@@ -1679,10 +1618,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1690,10 +1626,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <v>15</v>
@@ -1701,10 +1637,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1712,10 +1645,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4">
         <v>20</v>
@@ -1723,10 +1656,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1734,10 +1664,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
         <v>25</v>
@@ -1745,10 +1675,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -1756,10 +1683,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -1767,10 +1694,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -1778,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -1789,10 +1713,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s" s="4">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -1800,19 +1721,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s" s="4">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -1820,21 +1738,18 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s" s="4">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -1842,21 +1757,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s" s="4">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -1864,21 +1776,18 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s" s="4">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -1886,21 +1795,18 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s" s="4">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -1908,21 +1814,18 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s" s="4">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -1930,21 +1833,18 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s" s="4">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -1952,21 +1852,18 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" t="s" s="4">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s" s="4">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -1974,21 +1871,18 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" t="s" s="4">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s" s="4">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -1996,21 +1890,18 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="H19" t="s" s="4">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2018,21 +1909,18 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" t="s" s="4">
-        <v>54</v>
-      </c>
-      <c r="H20" t="s" s="4">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2040,21 +1928,18 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="H21" t="s" s="4">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2062,21 +1947,18 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="H22" t="s" s="4">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2084,21 +1966,18 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="H23" t="s" s="4">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2106,21 +1985,18 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="H24" t="s" s="4">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2128,21 +2004,18 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="H25" t="s" s="4">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2150,21 +2023,18 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D26" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" t="s" s="4">
-        <v>65</v>
-      </c>
-      <c r="H26" t="s" s="4">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2172,21 +2042,56 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D27" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" t="s" s="4">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s" s="4">
-        <v>63</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" t="s" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/docs/achievement.xlsx
+++ b/docs/achievement.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -119,7 +119,10 @@
     <t>ナイトメアLv1撃破</t>
   </si>
   <si>
-    <t>nightmare</t>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>NIGHTMARE</t>
   </si>
   <si>
     <t>ナイトメアを倒そう</t>
@@ -128,22 +131,43 @@
     <t>ナイトメアLv2撃破</t>
   </si>
   <si>
+    <t>FIRE_DEMON</t>
+  </si>
+  <si>
     <t>ナイトメアLv3撃破</t>
   </si>
   <si>
+    <t>WATER_DEMON</t>
+  </si>
+  <si>
     <t>ナイトメアLv4撃破</t>
   </si>
   <si>
+    <t>EARTH_DEMON</t>
+  </si>
+  <si>
     <t>ナイトメアLv5撃破</t>
   </si>
   <si>
+    <t>WIND_DEMON</t>
+  </si>
+  <si>
     <t>ナイトメアLv6撃破</t>
   </si>
   <si>
+    <t>POISON_DEMON</t>
+  </si>
+  <si>
     <t>ナイトメアLv7撃破</t>
   </si>
   <si>
+    <t>SHADOW_DEMON</t>
+  </si>
+  <si>
     <t>ナイトメアLv8撃破</t>
+  </si>
+  <si>
+    <t>ICE_DEMON</t>
   </si>
   <si>
     <t>空腹で倒れた</t>
@@ -1529,8 +1553,8 @@
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.0469" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.8438" style="1" customWidth="1"/>
@@ -1876,13 +1900,13 @@
       <c r="C18" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
+      <c r="D18" t="s" s="4">
+        <v>36</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -1890,18 +1914,18 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="D19" s="4">
-        <v>2</v>
+      <c r="D19" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -1909,18 +1933,18 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="D20" s="4">
-        <v>3</v>
+      <c r="D20" t="s" s="4">
+        <v>41</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -1928,18 +1952,18 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="D21" s="4">
-        <v>4</v>
+      <c r="D21" t="s" s="4">
+        <v>43</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1947,18 +1971,18 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="D22" s="4">
-        <v>5</v>
+      <c r="D22" t="s" s="4">
+        <v>45</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1966,18 +1990,18 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="D23" s="4">
-        <v>6</v>
+      <c r="D23" t="s" s="4">
+        <v>47</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1985,18 +2009,18 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="D24" s="4">
-        <v>7</v>
+      <c r="D24" t="s" s="4">
+        <v>49</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2004,18 +2028,18 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="D25" s="4">
-        <v>8</v>
+      <c r="D25" t="s" s="4">
+        <v>51</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2023,10 +2047,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
@@ -2034,7 +2058,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" t="s" s="4">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2042,10 +2066,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -2053,7 +2077,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" t="s" s="4">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2061,10 +2085,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D28" s="4">
         <v>5</v>
@@ -2072,7 +2096,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" t="s" s="4">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2080,10 +2104,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D29" s="4">
         <v>6</v>
@@ -2091,7 +2115,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" t="s" s="4">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
